--- a/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
+++ b/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\00_base_Sakamoto\data\TXT\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F51ECD-C2FE-4BF0-834E-07175185526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222C362-F76A-4B58-832D-97B21B71164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>START_POS</t>
   </si>
   <si>
     <t>0 0 0</t>
-  </si>
-  <si>
-    <t>GRID_SIZE_Y</t>
   </si>
   <si>
     <t>NUM_GRID</t>
@@ -1025,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A70E49-30B4-4A10-9B48-EF702AA494C6}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1045,22 +1042,85 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>15</v>
+      <c r="B2" t="str">
+        <f>COUNT(5:5)&amp;" "&amp;COUNT(A:A)</f>
+        <v>23 16</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="str">
-        <f>COUNT(5:5)&amp;" "&amp;COUNT(A:A)</f>
-        <v>23 16</v>
-      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -1068,13 +1128,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1086,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1104,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1116,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -1128,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1140,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1149,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1176,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -1188,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1200,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -1212,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1236,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1257,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1266,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -1275,34 +1335,34 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1314,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1323,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -1332,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1341,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
         <v>1</v>
@@ -1353,28 +1413,28 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1404,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -1413,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
         <v>1</v>
@@ -1428,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1470,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -1497,10 +1557,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1524,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1554,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -1563,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1578,22 +1638,22 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1623,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -1794,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1866,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1938,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -2073,34 +2133,34 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -2124,101 +2184,30 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1">
-        <v>1</v>
-      </c>
-      <c r="W20" s="1">
-        <v>1</v>
+      <c r="A20" t="s">
+        <v>4</v>
       </c>
       <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
+++ b/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\00_base_Sakamoto\data\TXT\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222C362-F76A-4B58-832D-97B21B71164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA99F71-E3EA-4312-817D-D7FABB32E534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1929,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>

--- a/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
+++ b/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\00_base_Sakamoto\data\TXT\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA99F71-E3EA-4312-817D-D7FABB32E534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA6957A-32CF-475F-8EC9-6F5C7F0F5E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1737,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -1854,40 +1854,40 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="N15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="1">
+      <c r="O15" s="1">
         <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>

--- a/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
+++ b/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\00_base_Sakamoto\data\TXT\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA6957A-32CF-475F-8EC9-6F5C7F0F5E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FD04E-22E9-4658-8FDF-F5AD007C6557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>

--- a/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
+++ b/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\00_base_Sakamoto\data\TXT\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FD04E-22E9-4658-8FDF-F5AD007C6557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDCC6F-600F-42B1-94CF-DAD4B9C4373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1710,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>

--- a/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
+++ b/00_base_Sakamoto/data/TXT/STAGE/Block.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\00_base_Sakamoto\data\TXT\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDCC6F-600F-42B1-94CF-DAD4B9C4373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB017F-EFBB-4197-8C7F-B07E0E220E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -640,12 +640,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -692,7 +695,88 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1025,7 +1109,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1051,6 +1135,28 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -1206,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2100,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -2211,6 +2317,41 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A4:W19">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>